--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.124</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.452</v>
+        <v>16.965</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.262</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.666</v>
+        <v>9.972</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.245</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.138</v>
+        <v>7.628</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.71666393112475</v>
+        <v>11.99082634787905</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.43246406847355</v>
+        <v>16.93120106104134</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.88687006814429</v>
+        <v>20.72807979502851</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.16839222283711</v>
+        <v>-2.166013901409329</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.17406794853897</v>
+        <v>21.72543072781293</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.07960532548385</v>
+        <v>23.2169344021712</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.57221935968754</v>
+        <v>1.020048321461765</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.64636229863619</v>
+        <v>33.41166965009079</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.65061255404543</v>
+        <v>33.91228707082003</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.56661714190681</v>
+        <v>35.17343642734801</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.75098831341929</v>
+        <v>39.41673086994427</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.41362609552429</v>
+        <v>43.10759613388903</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.29701655741051</v>
+        <v>14.79341005380779</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.38682554164096</v>
+        <v>33.62477159454967</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.04691483677337</v>
+        <v>40.50040618706174</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.76268373204714</v>
+        <v>18.86469451798601</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.79552065287846</v>
+        <v>38.06185938860213</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.21091413404302</v>
+        <v>44.19002703199626</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.675388093174596</v>
+        <v>5.726595013824145</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.73149314298685</v>
+        <v>32.765593420782</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.71665334402074</v>
+        <v>40.90737947372917</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.13128191721907</v>
+        <v>9.668703626939241</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.48190813469334</v>
+        <v>51.3897533119265</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.47179095598548</v>
+        <v>63.20310705220498</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.93951285783763</v>
+        <v>55.49122031274251</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.72366882700352</v>
+        <v>66.91184399550265</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>46.67738318317686</v>
+        <v>73.4904064512078</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.85285302344788</v>
+        <v>21.2267068639716</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.90479286987772</v>
+        <v>63.17150156985934</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.31364910468243</v>
+        <v>72.86136567217076</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.90023225664139</v>
+        <v>24.70623478406397</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.63550655447096</v>
+        <v>46.26581487920716</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.64867873692534</v>
+        <v>51.58785933936884</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.56553275464768</v>
+        <v>9.6049545445265</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.89302667328961</v>
+        <v>43.57043482473128</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.30031982188159</v>
+        <v>50.90251101799662</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.76437079438615</v>
+        <v>14.90299078487278</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.81640384609365</v>
+        <v>66.06772241524428</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48.47824554633929</v>
+        <v>76.67054143558549</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.78373072780214</v>
+        <v>82.07172282879716</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50.95816167227063</v>
+        <v>90.17651549823825</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.07735590517517</v>
+        <v>97.4685419182712</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.62044344385397</v>
+        <v>33.57925573528065</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.92296789566548</v>
+        <v>82.69100223281153</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>52.92758025756238</v>
+        <v>91.43499119496732</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.01026437392581</v>
+        <v>11.93343464962034</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.2150872907802</v>
+        <v>37.97081574350373</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.61851267111203</v>
+        <v>42.867517261608</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.719186028024986</v>
+        <v>4.193725034509843</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.05965952000735</v>
+        <v>44.87902640759452</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.83545269302953</v>
+        <v>48.74949666797569</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.97448091846863</v>
+        <v>6.225729393117334</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.57472298905289</v>
+        <v>67.19331770113206</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.48124214763583</v>
+        <v>68.68099846833428</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.97584989118737</v>
+        <v>61.70172525664793</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.065341009523</v>
+        <v>68.77412242953341</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.41545391518817</v>
+        <v>72.67815139878908</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.21623742659267</v>
+        <v>18.66619815078307</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.36277219369476</v>
+        <v>61.9664486589713</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.91062773849608</v>
+        <v>68.04971653865866</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.5868503300781</v>
+        <v>11.87472132947358</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.98001227914533</v>
+        <v>41.24660247599984</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.32474599065594</v>
+        <v>46.26922056584708</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.705337450527406</v>
+        <v>4.873382042428531</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.96410400696659</v>
+        <v>38.99885117459784</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.79398516215369</v>
+        <v>47.7335099610324</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.92191511895295</v>
+        <v>5.546447079297906</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.6547597505111</v>
+        <v>62.22539084169974</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.53102003186941</v>
+        <v>72.97294220808982</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.75939131995595</v>
+        <v>61.51372095185903</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>43.39928007047973</v>
+        <v>73.41129715940977</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>48.01306570333327</v>
+        <v>77.91905113258927</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.45688941648794</v>
+        <v>17.57917768802123</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.34728415322401</v>
+        <v>72.87511490570067</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.61732005203843</v>
+        <v>78.53194914420089</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.72358093420069</v>
+        <v>14.83483690097153</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.90266878188415</v>
+        <v>47.96017771788393</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.81089489365409</v>
+        <v>53.46974446111966</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15.63207544206152</v>
+        <v>4.610812081736853</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.24876872739272</v>
+        <v>47.66369051330167</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.47400252926668</v>
+        <v>55.95653384848056</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.57483940714748</v>
+        <v>6.147618358153824</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.0909608613286</v>
+        <v>74.4736639899627</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.60732615325691</v>
+        <v>85.02112136081638</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.66691459590708</v>
+        <v>84.43351422663095</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.70473590319896</v>
+        <v>96.2645565994209</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>57.48233761828197</v>
+        <v>101.596159428218</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.14817224580735</v>
+        <v>23.98632170159705</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>46.40770031678666</v>
+        <v>89.10600752971156</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>54.24195382670858</v>
+        <v>95.74761704626576</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.66485340757091</v>
+        <v>22.24594324462415</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.70403674940987</v>
+        <v>39.09183349984838</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.98830459385734</v>
+        <v>42.3842810519916</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.033709369374169</v>
+        <v>6.97244329280668</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.23926184182654</v>
+        <v>44.34427650224746</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.89701888638047</v>
+        <v>46.05435679170591</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.29164387203694</v>
+        <v>12.94135174635888</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.72881443128079</v>
+        <v>67.33974962308633</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.52384369334577</v>
+        <v>65.94647568492502</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.26418565407299</v>
+        <v>61.74641802151594</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>41.2193946391859</v>
+        <v>70.27299527721181</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.55910047683165</v>
+        <v>70.87797182727775</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.90246618438645</v>
+        <v>29.08699794276708</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.56878886517801</v>
+        <v>60.54123873456126</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.02783897426239</v>
+        <v>64.51498352177138</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.86385222163851</v>
+        <v>24.30530742583027</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.11647285373133</v>
+        <v>48.29561468177791</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.34344025302779</v>
+        <v>51.40158656342072</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.648591560014964</v>
+        <v>7.599534323499554</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.80483672161425</v>
+        <v>43.9645317375026</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.51708928463246</v>
+        <v>49.38275464587552</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.92005535603133</v>
+        <v>12.31689199420084</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.51787908001145</v>
+        <v>67.8406136050143</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.28210502194567</v>
+        <v>75.27335229858348</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.6909094297384</v>
+        <v>66.15096372739617</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.20094611465193</v>
+        <v>76.48971373856222</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.80070126789641</v>
+        <v>78.49056351997432</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.75425535112975</v>
+        <v>27.68141986604088</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>38.18220053026397</v>
+        <v>73.44265923054157</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>45.37011215695743</v>
+        <v>77.66323145552123</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.96909966264257</v>
+        <v>25.30709136864338</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.00723666332924</v>
+        <v>53.07165982314921</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.79358474178253</v>
+        <v>55.8677121078526</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.5478917536851</v>
+        <v>7.836344845381575</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.06127733033905</v>
+        <v>54.04827565847685</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.16460322889768</v>
+        <v>57.61077259197834</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.52502938109933</v>
+        <v>12.58405763001498</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.90653805349077</v>
+        <v>80.53801244607249</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50.30801486583827</v>
+        <v>86.29751245581915</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.53264327709432</v>
+        <v>90.05018481714531</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>52.4491085934419</v>
+        <v>99.37248517857773</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.22753995474838</v>
+        <v>102.2990892104005</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.36890572119645</v>
+        <v>36.77712314335297</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.19912592405392</v>
+        <v>92.20684336269252</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.9383105857069</v>
+        <v>96.28533238582249</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.44589457745251</v>
+        <v>14.98675216007874</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.7987912116558</v>
+        <v>20.43120214459691</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.13105943843735</v>
+        <v>23.82895070845088</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6.052387954613939</v>
+        <v>0.02442512809498965</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.64024052428638</v>
+        <v>23.96803903203759</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.40090976671078</v>
+        <v>26.81233851294305</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.34036595237272</v>
+        <v>5.178243830284949</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.97487572420844</v>
+        <v>34.9899061747463</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.85424399793491</v>
+        <v>35.88101887619196</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.62703595170153</v>
+        <v>36.87667590531272</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.63149899347771</v>
+        <v>40.33602488254608</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>43.2190256332913</v>
+        <v>46.25287903921084</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.07506237150796</v>
+        <v>31.26751643010012</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.60630538855314</v>
+        <v>49.30473509299541</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>41.10206982762084</v>
+        <v>54.82631889633913</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.26105623168914</v>
+        <v>20.18095957047961</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.909711051363</v>
+        <v>37.96437758426266</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.21236068055504</v>
+        <v>43.15111777442617</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.313442441730583</v>
+        <v>8.381661571622097</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.93733788426627</v>
+        <v>34.27533188908907</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.78373869419002</v>
+        <v>43.64336738883739</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.64467389477916</v>
+        <v>11.99678439582045</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.53377752250195</v>
+        <v>48.74310689624267</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>39.40740901418468</v>
+        <v>60.34457221832308</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.75885743687204</v>
+        <v>50.03316269234087</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.34505375277452</v>
+        <v>60.42253884107703</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.21815488989584</v>
+        <v>68.66985641741897</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.37536568067243</v>
+        <v>26.01029407538437</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.82652895163559</v>
+        <v>65.47013328017907</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.0898507204436</v>
+        <v>71.68453405357054</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.46776541662</v>
+        <v>28.05582953979917</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.82808111681063</v>
+        <v>48.18367787465622</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.71505494043281</v>
+        <v>52.08560036581471</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.25384962552756</v>
+        <v>13.02622045813716</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.1511270409888</v>
+        <v>45.97158260494785</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.41218886496386</v>
+        <v>53.88705093467737</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.30579649496373</v>
+        <v>18.90870008995629</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.90544189096087</v>
+        <v>65.90346658101096</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.43873302377123</v>
+        <v>75.96323445845971</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.60654217823539</v>
+        <v>75.97229017479958</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.58100346312247</v>
+        <v>83.81659890652917</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.62342040914744</v>
+        <v>93.39886977974578</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.15524073740186</v>
+        <v>39.99106161183066</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.86542002681954</v>
+        <v>85.75346280052948</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.69578274949962</v>
+        <v>91.44855570948579</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.68920684888894</v>
+        <v>23.75292323890645</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.70442941856544</v>
+        <v>40.10146345573897</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.06042220957177</v>
+        <v>40.73654885421787</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.26654611797348</v>
+        <v>7.490402537219872</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.61666131422522</v>
+        <v>46.36264304579953</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.40498314367124</v>
+        <v>46.51202940293718</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>18.0388937486014</v>
+        <v>14.30573716314243</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.44055284731237</v>
+        <v>66.23447224233121</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.33939078588906</v>
+        <v>62.88099582119423</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.66564153474517</v>
+        <v>55.05909175271695</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.94234958789466</v>
+        <v>62.05243939363218</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>47.51411430861913</v>
+        <v>63.65405022280693</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.09951169024691</v>
+        <v>28.64240806231644</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.37157831093846</v>
+        <v>51.61157376514503</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>44.92642575984328</v>
+        <v>55.23466970058487</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.82788321900464</v>
+        <v>30.55418656630059</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.13257604930955</v>
+        <v>54.19129051144659</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.44253476012162</v>
+        <v>54.4998802802227</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.85774719348248</v>
+        <v>13.56926122851252</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.24419468100794</v>
+        <v>49.77239193554192</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.0976528213148</v>
+        <v>54.01719875164213</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.70554341083215</v>
+        <v>20.51905261392387</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.35044493759733</v>
+        <v>73.39807307495596</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.2274834665286</v>
+        <v>78.11158452493837</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>38.14445176137218</v>
+        <v>73.07073948864588</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.99895816465157</v>
+        <v>83.36009356225915</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>50.85276022991937</v>
+        <v>86.50732600405219</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.82543164695999</v>
+        <v>41.36025618932909</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>41.01997094201974</v>
+        <v>82.81937692986602</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.43035537862759</v>
+        <v>31.30511982323977</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>39.4253053177015</v>
+        <v>57.342409193236</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.33281017550406</v>
+        <v>58.56093592173321</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>17.17869044888113</v>
+        <v>11.72707089157488</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.81275229543223</v>
+        <v>54.59222078440446</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.09134065414992</v>
+        <v>58.4098059048883</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.69514823175342</v>
+        <v>18.5170374557335</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.02381922246109</v>
+        <v>81.08976695993577</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>52.57807360338288</v>
+        <v>87.23355451346039</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>46.35529499888954</v>
+        <v>90.31369846752216</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>54.61364339551127</v>
+        <v>98.98880452121094</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>59.63802658153265</v>
+        <v>104.1748244074338</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.97412295986075</v>
+        <v>44.99373798327994</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>48.42003700872516</v>
+        <v>93.91403228504335</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>56.30726529994302</v>
+        <v>97.77344968566186</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.18656052495547</v>
+        <v>17.69030316296437</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.13226594305399</v>
+        <v>37.49905126879962</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>48.83998886529546</v>
+        <v>41.75487556554911</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.41974360893928</v>
+        <v>6.126092130068521</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>43.41374311836994</v>
+        <v>47.53157492669891</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.49792827848202</v>
+        <v>49.99109334647326</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.6297994576286</v>
+        <v>8.846094890082771</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>53.65283344263383</v>
+        <v>70.4669042239812</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.78298371225348</v>
+        <v>68.20236253942619</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50.46227159499269</v>
+        <v>51.5959008797366</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>57.07483566011643</v>
+        <v>59.61455074216891</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>60.91286192423536</v>
+        <v>61.68000917586139</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.07516537102204</v>
+        <v>17.30254796576652</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>51.21465674914318</v>
+        <v>42.60618735352103</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>57.68996098268369</v>
+        <v>45.8470129886709</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.6654154036838</v>
+        <v>25.11290388695236</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.81799586967695</v>
+        <v>53.8413651244469</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.47779523943568</v>
+        <v>56.42862802022505</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.35897873547011</v>
+        <v>8.280419879094268</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.34049913242984</v>
+        <v>48.64484482675645</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>49.46327484581648</v>
+        <v>54.37504047872803</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.6420474342065</v>
+        <v>11.96043039482703</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>55.82046258755102</v>
+        <v>75.28244843602334</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>59.92941391201578</v>
+        <v>80.34393109275726</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.28361786715593</v>
+        <v>68.91761116353221</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>59.40940638695246</v>
+        <v>80.03658793843266</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>63.49364101035209</v>
+        <v>83.75294738690819</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.3109020589659</v>
+        <v>29.47614139433981</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>54.20377927322127</v>
+        <v>81.09326382004832</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>60.44462836231115</v>
+        <v>83.74394024065731</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.90893335747922</v>
+        <v>27.05257731548596</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>52.65168982115018</v>
+        <v>57.1607483051199</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>56.82220207372234</v>
+        <v>61.16889237064439</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.36118131453689</v>
+        <v>7.182913931944089</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.40824494937386</v>
+        <v>51.87134956972042</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>54.89042057827043</v>
+        <v>58.06193912552106</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>44.00075434757381</v>
+        <v>9.814107836728912</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>61.75683876736031</v>
+        <v>81.08517166900639</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>66.44956373947272</v>
+        <v>87.14220670880538</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>58.81418766604548</v>
+        <v>86.71937065628346</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>66.26409346889737</v>
+        <v>96.56949644807854</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>70.47007690779645</v>
+        <v>99.67323608697629</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>40.95469842688822</v>
+        <v>31.89049778947403</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>59.94994973547713</v>
+        <v>90.35627950935871</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>66.67848633042918</v>
+        <v>92.44591342812072</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>19.53442317450586</v>
+        <v>6.424868348659729</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>32.45281237491845</v>
+        <v>10.04587280071984</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.36153993724263</v>
+        <v>13.27202351456959</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.01341117350818</v>
+        <v>-3.100002050832515</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.91187954259325</v>
+        <v>17.69306342854804</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.18061760866772</v>
+        <v>18.01199929546036</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.2128046099422</v>
+        <v>-2.442007285313807</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>39.0908339876499</v>
+        <v>24.94901976235376</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43.44532466798612</v>
+        <v>25.46538640756278</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.10604586904219</v>
+        <v>30.1304937253426</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.39946428173793</v>
+        <v>35.94752139333465</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.3121665860757</v>
+        <v>36.5566622413201</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.87147577136363</v>
+        <v>10.06914306123223</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>38.96730955792286</v>
+        <v>25.57031683786836</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>45.59662649814084</v>
+        <v>28.14476307651564</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.11493636305948</v>
+        <v>13.46322685389677</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.32020745437438</v>
+        <v>32.42111065817431</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.19269418425279</v>
+        <v>38.37866254668619</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.10421949870023</v>
+        <v>5.037944993466837</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.04958056231001</v>
+        <v>31.53752941019468</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.39128538521428</v>
+        <v>39.30972910779899</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.3511370176135</v>
+        <v>6.466673349669637</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>41.47964119162998</v>
+        <v>47.44500164095085</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>45.8212685426175</v>
+        <v>57.92403523246274</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.03099238647884</v>
+        <v>48.82431894721295</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.89035342112216</v>
+        <v>58.04799763168314</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.03971172368048</v>
+        <v>61.48931542493901</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.01624417447739</v>
+        <v>15.81833161551345</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.96443310034864</v>
+        <v>54.57891145804126</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>48.34265624617822</v>
+        <v>61.29848682796791</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.81141084763059</v>
+        <v>19.31572759053613</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.64914345407909</v>
+        <v>40.91427942145648</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.02713810847481</v>
+        <v>46.3370048165504</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>22.70661772435332</v>
+        <v>8.035269286204969</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.77706507210383</v>
+        <v>44.26493299854464</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>43.46234199227089</v>
+        <v>49.76385707692906</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.47632672126523</v>
+        <v>11.87049723654694</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>49.24228590903722</v>
+        <v>64.1367189098308</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>54.1498730310392</v>
+        <v>72.10082651263009</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>48.26043836018359</v>
+        <v>78.0642403962317</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>55.4088035121604</v>
+        <v>86.66541946295432</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>59.71224439523989</v>
+        <v>88.897078890757</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.34709678819253</v>
+        <v>32.96903909140192</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.42592795431226</v>
+        <v>79.25828877565529</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.32863529363664</v>
+        <v>86.00127835914247</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>18.91311399350773</v>
+        <v>3.978994626417876</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.0073832012863</v>
+        <v>6.651999580267653</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.24636117291774</v>
+        <v>10.67736917430973</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.88604708260387</v>
+        <v>-5.879632645548583</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.16758928815322</v>
+        <v>12.30900958842375</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.81767519381712</v>
+        <v>15.84972714179629</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.43180916997515</v>
+        <v>-7.11295567646571</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.72351204168776</v>
+        <v>19.86862012899793</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>44.49996678738433</v>
+        <v>20.83002456465638</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>38.47288884022774</v>
+        <v>20.72791287554033</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>45.33445686005684</v>
+        <v>26.41052730199693</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>49.85459521068257</v>
+        <v>30.31462893608498</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.71042129052109</v>
+        <v>5.614781372231327</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.90251234610161</v>
+        <v>18.62383815447311</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.18655970367599</v>
+        <v>20.6116845555526</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.45930535254939</v>
+        <v>0.8965583579730989</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.82290221779655</v>
+        <v>9.379793619113943</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.01497797892745</v>
+        <v>15.79514730959496</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.91749253629603</v>
+        <v>-5.159714492849332</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>32.22196445249357</v>
+        <v>10.3717983672246</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.93199052971885</v>
+        <v>18.47093496479862</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.49788128878762</v>
+        <v>-6.514772306369821</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>42.01604189027628</v>
+        <v>19.92913727544815</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>46.76716198831869</v>
+        <v>32.20062299807962</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.40612958356322</v>
+        <v>25.1499525977834</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>47.8088344749859</v>
+        <v>36.81309378179769</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>52.60974628505205</v>
+        <v>46.24075066216892</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.87200097971053</v>
+        <v>3.100839171374069</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>42.91715305542426</v>
+        <v>31.72666244814707</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>49.9647743400712</v>
+        <v>34.95909025628316</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.84248220954828</v>
+        <v>5.723264135054173</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>41.87472017897834</v>
+        <v>17.37428286524219</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>46.65871365037358</v>
+        <v>28.33843561255052</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.03118314230888</v>
+        <v>-1.226998615756663</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.53658831402699</v>
+        <v>21.16945788212134</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>43.67718269604639</v>
+        <v>33.43801927377524</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.21966492470748</v>
+        <v>-1.857152647362994</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>49.4008334765148</v>
+        <v>35.22603346582568</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.82373137773774</v>
+        <v>51.88030928497642</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.27700953767413</v>
+        <v>49.88833253536944</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.09890251764215</v>
+        <v>61.00253961735987</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>61.06511117201445</v>
+        <v>74.38618593244011</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.771638403998</v>
+        <v>12.51105831978324</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>50.03717268527065</v>
+        <v>49.64121936848225</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>57.65206503342176</v>
+        <v>55.16344865671429</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.54258620724506</v>
+        <v>16.33935072918102</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>43.07414250770695</v>
+        <v>30.98745122130443</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>47.15482727040292</v>
+        <v>40.0511918884548</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.93103211158527</v>
+        <v>7.574664391140473</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>41.72742317062388</v>
+        <v>50.25704413386109</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>46.15321824634729</v>
+        <v>52.56292894007013</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.22333578887297</v>
+        <v>13.51081606144733</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>51.9924523848233</v>
+        <v>71.08755565430963</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>56.52119053509259</v>
+        <v>71.66520702972123</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>49.72271550940673</v>
+        <v>64.6044910149258</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>56.397133396733</v>
+        <v>71.5886159564396</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.45955248102692</v>
+        <v>73.04500734421524</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>32.80444731822417</v>
+        <v>35.95737719241706</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>50.74466117048923</v>
+        <v>61.96969962008863</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>57.93448610388978</v>
+        <v>73.18611830909074</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.17726465467122</v>
+        <v>15.65253959030296</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>43.89617326391248</v>
+        <v>37.88752345308711</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>47.87290145739732</v>
+        <v>41.85928020755092</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.95959802048244</v>
+        <v>0.8448229639603539</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>41.69004588425797</v>
+        <v>37.02429491325271</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>46.1134988782761</v>
+        <v>41.20632704710204</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.12236925995205</v>
+        <v>4.885194685522006</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>52.01693906251266</v>
+        <v>60.57454472849744</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>56.4708527012845</v>
+        <v>66.3957729914809</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>49.5106055612564</v>
+        <v>56.48648643796402</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.70475945710505</v>
+        <v>63.85731441788133</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.9972966394518</v>
+        <v>67.29518761083068</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>33.04799759354722</v>
+        <v>24.52385259458462</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>51.74159518100944</v>
+        <v>66.96059441162005</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.56081317895658</v>
+        <v>70.07894253028421</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.43948799725478</v>
+        <v>20.53723866714327</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49.80055072042627</v>
+        <v>44.15860767648449</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.34696664286705</v>
+        <v>49.90811323112052</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.06605574112347</v>
+        <v>5.355855516027574</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.93525072257939</v>
+        <v>48.27357914350108</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.7656184421201</v>
+        <v>52.84569596726286</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>40.7849991297772</v>
+        <v>10.06955930596407</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>59.32269493990099</v>
+        <v>75.35858648742813</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>64.41588104637437</v>
+        <v>81.54846772240663</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>57.3839591340837</v>
+        <v>82.39455990102928</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>64.92629387419065</v>
+        <v>90.47357793582381</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>69.40041292217428</v>
+        <v>92.13816148145398</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.87615829582565</v>
+        <v>33.7522376758013</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>58.76622688982292</v>
+        <v>86.16360341201947</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>66.15430709039731</v>
+        <v>91.19234358509412</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.04120683763547</v>
+        <v>5.595916748762825</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.63243308899738</v>
+        <v>9.632986659559119</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.6598690323742</v>
+        <v>14.31557620852386</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.797766057384927</v>
+        <v>-3.077111215064111</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.06642366814411</v>
+        <v>11.87101888306572</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.46656984505226</v>
+        <v>14.8444098703359</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>12.77909086008238</v>
+        <v>-1.465902227103747</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.31273826013731</v>
+        <v>21.31839583346001</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.82353747521882</v>
+        <v>23.33779456203668</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.30840593688933</v>
+        <v>23.41183513856235</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.39246214022101</v>
+        <v>27.87336833807089</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.41955007395671</v>
+        <v>31.33540289926389</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>13.22862046483442</v>
+        <v>4.892572364937145</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.21010269238986</v>
+        <v>21.55168179745276</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.07265762469392</v>
+        <v>24.01076341736513</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.49098497628982</v>
+        <v>6.740939182426139</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.35775615829188</v>
+        <v>22.56609958893697</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.36781602189045</v>
+        <v>30.28264671683606</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>7.790333555614432</v>
+        <v>2.310151140795625</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.09716125328023</v>
+        <v>21.13902718157971</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.58551330483738</v>
+        <v>30.44998390925285</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.80700399000941</v>
+        <v>3.841748270235861</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.58371071280551</v>
+        <v>34.54365002095577</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>35.10008992586638</v>
+        <v>45.7900994042444</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.15034340312751</v>
+        <v>33.45973898001258</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.79108068408385</v>
+        <v>43.29516294398501</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.0684180143006</v>
+        <v>48.78115848171863</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.30162301869698</v>
+        <v>6.651082692974654</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>32.08348227755938</v>
+        <v>39.42980362542174</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.77589952278852</v>
+        <v>47.63621570886376</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.06308469022146</v>
+        <v>16.6329074361756</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.6448967336747</v>
+        <v>34.58213249452378</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>36.14351715067772</v>
+        <v>42.06913515109747</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.20501774301244</v>
+        <v>8.8052423118713</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.76280268933894</v>
+        <v>35.79873848611822</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.58425474001829</v>
+        <v>43.99146554159161</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.7873778372021</v>
+        <v>13.11332349834711</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.27763979436463</v>
+        <v>52.84076447020522</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>43.34682405107868</v>
+        <v>63.76192187021353</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.25039787438904</v>
+        <v>61.52950486676633</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>45.2268744890674</v>
+        <v>69.5803684966854</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.65669512245555</v>
+        <v>80.95659748115344</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.46418752906982</v>
+        <v>26.01228045534943</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>39.49152316142621</v>
+        <v>64.51437553520191</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>46.66306387182091</v>
+        <v>73.81185406666084</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>13.90116633207789</v>
+        <v>-2.259516026401769</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.094158070043</v>
+        <v>4.910730232637473</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.12779635731274</v>
+        <v>7.623070545470785</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.437990839789766</v>
+        <v>-13.62579147917313</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.5876685179492</v>
+        <v>8.146089490853385</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.99202907144742</v>
+        <v>10.7785082785786</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.26633154566818</v>
+        <v>-15.55161265304719</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.67144360452974</v>
+        <v>21.29367896598076</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>39.19544093608189</v>
+        <v>20.31723319901309</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.78996392582013</v>
+        <v>18.55305792931896</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>40.44407553037197</v>
+        <v>22.85700786452804</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>44.5379591588988</v>
+        <v>24.12771139765245</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.30750652072744</v>
+        <v>-2.979067343074288</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.89783800789036</v>
+        <v>15.11196499640351</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.86589065827739</v>
+        <v>16.7389548601421</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.09666657487007</v>
+        <v>18.0893134772298</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.5076902313204</v>
+        <v>36.62634577177418</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.51253809698723</v>
+        <v>40.4275171082944</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>12.09274373423864</v>
+        <v>6.118032744804918</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.22571557090445</v>
+        <v>34.43352487606074</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.70684086522257</v>
+        <v>40.74563206048111</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>20.05963739361178</v>
+        <v>7.626620293809779</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>37.63905047207695</v>
+        <v>52.34863955428567</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.15792610571091</v>
+        <v>60.40056721948311</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.3431926953385</v>
+        <v>53.58096076757854</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.52157541690253</v>
+        <v>62.27526247158447</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.87185837652827</v>
+        <v>64.25848859204368</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.23263555935268</v>
+        <v>20.96429465956752</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.54985959152891</v>
+        <v>60.66241050871919</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.32566909288627</v>
+        <v>64.46527496792493</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.67528521359149</v>
+        <v>22.30752140768156</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.84846357543563</v>
+        <v>45.99567274639863</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.37005219097737</v>
+        <v>50.14169377779292</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.41704761448468</v>
+        <v>7.460710367117443</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.86826640127124</v>
+        <v>47.27700749034459</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>39.70539450631085</v>
+        <v>51.79405289806647</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.95734509982142</v>
+        <v>9.276442336051446</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.29053509488804</v>
+        <v>67.9750876472273</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>50.40375810644655</v>
+        <v>74.67733806253106</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>44.40560467806276</v>
+        <v>78.3046341477378</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>51.9923181171922</v>
+        <v>87.467466737834</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.49329846336623</v>
+        <v>91.30206135228585</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.18577461175036</v>
+        <v>31.13030957303141</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>45.86222970983112</v>
+        <v>81.96152601875798</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>53.12628762340363</v>
+        <v>84.30801548939328</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.600892754798498</v>
+        <v>9.330139917489738</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.10777190104859</v>
+        <v>12.42673047315821</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.25684261104567</v>
+        <v>17.05902800633167</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1.28329371019957</v>
+        <v>-2.675637317067775</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.12520473822482</v>
+        <v>14.19319448333797</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.61739376515628</v>
+        <v>17.96407014978643</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.902898133634896</v>
+        <v>-0.3780693576133807</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.54800529772764</v>
+        <v>25.06800216252127</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.19386979962489</v>
+        <v>27.89528964468821</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.94898956571523</v>
+        <v>26.99141050730865</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.31054785077606</v>
+        <v>31.00936957301291</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.4832424070893</v>
+        <v>33.52532004480203</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>7.507563927995776</v>
+        <v>12.66951621089192</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.1812436252694</v>
+        <v>24.92909836690881</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.27625714555176</v>
+        <v>28.15694193946861</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.31030376035697</v>
+        <v>3.639651792016547</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>19.01807894224333</v>
+        <v>13.04249221381408</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.14977022663409</v>
+        <v>20.21789673609006</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-0.1297633021384064</v>
+        <v>-2.910926731237339</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.22051491603975</v>
+        <v>11.15951357339294</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>19.80921044972967</v>
+        <v>21.43015264122273</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>7.048322621864496</v>
+        <v>-4.275601875172661</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.84780731770953</v>
+        <v>21.6998587850994</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.50414424528847</v>
+        <v>35.28869438608491</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.91486794718483</v>
+        <v>25.45040967095845</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.8342920947713</v>
+        <v>30.30383322660845</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.25743290952606</v>
+        <v>34.94992103850888</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>8.861227598947419</v>
+        <v>3.792125816614792</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.2823170583136</v>
+        <v>28.75362257272165</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.1570788254628</v>
+        <v>34.97293178694872</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>12.6415061273739</v>
+        <v>17.59412691141262</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.16411736834099</v>
+        <v>31.72345210994868</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.80666193361544</v>
+        <v>37.27584344611272</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>7.028979421145585</v>
+        <v>2.998996417451128</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.74154927892588</v>
+        <v>28.11135690108068</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.67743853582288</v>
+        <v>35.20909670890317</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.94186902192473</v>
+        <v>8.294257327381583</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.56746055930592</v>
+        <v>48.46697731718395</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.80385547736</v>
+        <v>58.59476178661885</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.95029594853205</v>
+        <v>58.52559375400337</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.22591911008482</v>
+        <v>64.40468151793064</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>45.82500628393682</v>
+        <v>67.80427149097301</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.65862402612574</v>
+        <v>25.276439895667</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.49116115982074</v>
+        <v>59.13607670678206</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>42.87600260976989</v>
+        <v>63.37004609536189</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.303801876653107</v>
+        <v>2.621481333413485</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.77222655552752</v>
+        <v>2.85950198751852</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.60719501439314</v>
+        <v>3.90487015672047</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2.316329648168755</v>
+        <v>-5.41046683337369</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.87976992512753</v>
+        <v>4.669003568921493</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.01841938228491</v>
+        <v>6.16087762458487</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.19158066115845</v>
+        <v>-6.138568262297106</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.59064164025782</v>
+        <v>9.857454722881293</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.90497101295162</v>
+        <v>9.492782991356798</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.97740561225684</v>
+        <v>9.654791243327857</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.94934312620586</v>
+        <v>10.59605610578203</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.88862896597362</v>
+        <v>13.16040253238073</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.892938742146085</v>
+        <v>2.732457700932304</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.21088153314543</v>
+        <v>9.591700337013936</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.82101909583118</v>
+        <v>10.35068185512685</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>4.293369782646073</v>
+        <v>-0.3053712071828478</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.95707155351694</v>
+        <v>5.264611817743322</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.78975083438318</v>
+        <v>6.906172744261287</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-0.8365833962611195</v>
+        <v>-4.946209750027684</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>13.31164195377178</v>
+        <v>4.480537279840362</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.55965071888028</v>
+        <v>9.102435613700415</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>5.707929723580162</v>
+        <v>-8.779713656892071</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.26263464905206</v>
+        <v>8.640192172106637</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.59780850161352</v>
+        <v>14.86162046837985</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.33539763524221</v>
+        <v>9.563261343130403</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.8223753635095</v>
+        <v>12.51899910656233</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.00863323263477</v>
+        <v>14.65680291484182</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.56781742340879</v>
+        <v>-3.416608905631442</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.58696019144228</v>
+        <v>14.4038705698737</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.02512433874233</v>
+        <v>16.36908477553037</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.50769909662723</v>
+        <v>15.95409617581813</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.96949368691377</v>
+        <v>25.53228659528438</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.28770146405791</v>
+        <v>27.14294111713009</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>6.159240991013186</v>
+        <v>2.275032871485401</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.63694316708225</v>
+        <v>22.04660506287376</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.22058120471696</v>
+        <v>26.43822845593551</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.36682746148514</v>
+        <v>4.571397494039886</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.72470681949897</v>
+        <v>34.94200742216829</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.61399420117431</v>
+        <v>39.59099751770614</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.01741172471553</v>
+        <v>43.51510613414749</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.87203439715536</v>
+        <v>45.88608525272754</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.21149137711028</v>
+        <v>48.68734134084329</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.14912708160681</v>
+        <v>19.73587840216528</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.5240058344577</v>
+        <v>44.34641704769986</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.43350626759422</v>
+        <v>47.04034035393914</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.43654256850396</v>
+        <v>21.41013132754942</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>36.41291229407727</v>
+        <v>29.74220944358061</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>40.70532646615485</v>
+        <v>35.0588474126047</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.12143905497582</v>
+        <v>5.377135576955183</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.28722940298054</v>
+        <v>30.50344609107296</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>37.98571431889268</v>
+        <v>33.6925162875976</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.99324969411199</v>
+        <v>10.17458110513541</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>43.16973973598063</v>
+        <v>46.10176040443067</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.00125770979117</v>
+        <v>47.66169666297533</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.93202350038913</v>
+        <v>48.41157410206905</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>48.67919894270739</v>
+        <v>51.8891193098945</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>53.14051258247354</v>
+        <v>54.86425935901383</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.31991760464394</v>
+        <v>29.79821987484869</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>43.40443908932185</v>
+        <v>52.27414771266377</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>50.82791533593263</v>
+        <v>58.46569142435102</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.39687244541635</v>
+        <v>12.3226883319837</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.64406074018342</v>
+        <v>27.76344581209349</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>42.89085080898468</v>
+        <v>32.45868893249185</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.56203980410627</v>
+        <v>-1.0357918208313</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.74256327206168</v>
+        <v>19.94583715551403</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>39.50740615548931</v>
+        <v>26.16099521419497</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.41342935975171</v>
+        <v>1.026657372704889</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>44.81892141001449</v>
+        <v>37.44481321532422</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>49.62845957718914</v>
+        <v>46.47388855979123</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.24184288340359</v>
+        <v>40.16623124046413</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>50.5496423823519</v>
+        <v>46.11780139125267</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>55.27810085278517</v>
+        <v>49.95164465698995</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.83964632573809</v>
+        <v>16.38476580214897</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>45.80103863365439</v>
+        <v>50.75040847526252</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>52.97390223281091</v>
+        <v>55.24963742369941</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.27544900759707</v>
+        <v>24.25921426893827</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>45.21190459396629</v>
+        <v>42.41849650225596</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>50.03829423265723</v>
+        <v>48.0725460543187</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.19739242870471</v>
+        <v>7.973468461394873</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.60481196625898</v>
+        <v>37.34204957900106</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.78311811149069</v>
+        <v>43.59583015876298</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.70675132309772</v>
+        <v>12.97676267122873</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>52.80434245200374</v>
+        <v>59.66642514758016</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>58.26246870158098</v>
+        <v>69.26245678048504</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>51.69743270820971</v>
+        <v>73.96439928747668</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>59.38891361391791</v>
+        <v>78.90800248731694</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>64.29743311741228</v>
+        <v>83.58683653821224</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.27904295323091</v>
+        <v>31.65993971273592</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>53.46766830687894</v>
+        <v>73.58903040847989</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61.21608087873089</v>
+        <v>80.0518608061727</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>12.85233378543197</v>
+        <v>19.88331124364491</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.06171007525355</v>
+        <v>38.4902280494707</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.31543558178968</v>
+        <v>43.17263759399725</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.609362172834778</v>
+        <v>8.279199256538757</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.78559728107793</v>
+        <v>42.92432049783713</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.39199550053641</v>
+        <v>46.20120621534657</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.37235123248117</v>
+        <v>13.76776192576153</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.80802007193721</v>
+        <v>63.08134031772623</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.56861389895809</v>
+        <v>65.08961342830246</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.40758870890335</v>
+        <v>64.97834253301863</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.09945348739387</v>
+        <v>69.53891164978677</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>44.29455894070933</v>
+        <v>71.95602457870909</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.73805156666273</v>
+        <v>25.35654170160159</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.63251790083563</v>
+        <v>60.57893526927627</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>41.91141499156196</v>
+        <v>69.61978057437749</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.40584123652873</v>
+        <v>14.59071322710804</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.82190194137351</v>
+        <v>36.25290043577143</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.03436515168117</v>
+        <v>41.34311098563418</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>9.625590224422425</v>
+        <v>4.727485195014772</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.74532031398149</v>
+        <v>33.38047185144544</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.42073029055643</v>
+        <v>40.69103924076069</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.35617498702357</v>
+        <v>6.027934291257637</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.95257182090765</v>
+        <v>51.29449613222647</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.69649799749026</v>
+        <v>61.88133770004113</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.26603577379685</v>
+        <v>52.58498155361486</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.49132783016652</v>
+        <v>61.83463827312409</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.94067135096778</v>
+        <v>62.75865832995613</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.97524790426457</v>
+        <v>14.72420108029672</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.59932738534493</v>
+        <v>58.922493062477</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.64921318874261</v>
+        <v>67.43684436358137</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.20090360747531</v>
+        <v>16.85134952509494</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.40378384286105</v>
+        <v>42.42122670629521</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.15271225219539</v>
+        <v>48.32474205151794</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>15.20214055523268</v>
+        <v>5.206095904892365</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.67756955386709</v>
+        <v>43.3695115737851</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.72819498595788</v>
+        <v>50.26418913392553</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.59623637824739</v>
+        <v>6.912475733904593</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.97476187652016</v>
+        <v>63.49105240039101</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.33045647079785</v>
+        <v>75.21451223536188</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.72062889073351</v>
+        <v>75.36004475059359</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>50.34895347822049</v>
+        <v>85.12138531559813</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.96065802662752</v>
+        <v>91.74355085972037</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.30541903024403</v>
+        <v>24.13816038557682</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>44.29927817381807</v>
+        <v>76.64557046505905</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>51.88163220796984</v>
+        <v>87.72159172792065</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>8.578803895918298</v>
+        <v>18.7333496852946</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.38328509367031</v>
+        <v>31.43482076722658</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.00582987249097</v>
+        <v>37.65197377105702</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>3.184733471306867</v>
+        <v>6.829279696927664</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.4440650612087</v>
+        <v>43.71147137419788</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.51676555354152</v>
+        <v>45.96707201675714</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>11.94410293987566</v>
+        <v>11.50101272687981</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.30505888963665</v>
+        <v>60.99263587426918</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.48173877273936</v>
+        <v>61.73763321922507</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.3581566210702</v>
+        <v>56.98880573062794</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.94715032083629</v>
+        <v>60.79117215319625</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.7408061279318</v>
+        <v>64.58709047878531</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.93025492973447</v>
+        <v>28.73434219932925</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.41749885117588</v>
+        <v>55.62244689198657</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.42509734477554</v>
+        <v>65.9213341656919</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>11.20987520128895</v>
+        <v>17.14706819893625</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.29793721404442</v>
+        <v>39.33102448380231</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.85554294856334</v>
+        <v>43.35070126190625</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.21649653448936</v>
+        <v>3.148001392298106</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.48153405393374</v>
+        <v>36.77512589412196</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.60728920425151</v>
+        <v>41.96426063897663</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>13.9858418637543</v>
+        <v>6.517759542366704</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.57835843751535</v>
+        <v>57.33137432631455</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.71787316920869</v>
+        <v>66.20483005633903</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.20741314414725</v>
+        <v>57.79718951513135</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.39829639548724</v>
+        <v>67.14887017737652</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.48504543189416</v>
+        <v>72.10132348806684</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>16.07501057177348</v>
+        <v>21.96873806534434</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.50361630483103</v>
+        <v>67.59537537386821</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.20527016085833</v>
+        <v>74.75057037953266</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>17.59214163027129</v>
+        <v>20.76642311167765</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.40822041275486</v>
+        <v>45.17667306174719</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.59779925953096</v>
+        <v>49.51075306412385</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>11.35425822615463</v>
+        <v>5.884165304506947</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.93033870684714</v>
+        <v>45.64888387567647</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.5064431193927</v>
+        <v>51.41230876864056</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.92601639691378</v>
+        <v>9.562490050953233</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.24413588033229</v>
+        <v>69.74283588409793</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.09541877344948</v>
+        <v>78.51180678762975</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.41933220452179</v>
+        <v>82.44860785828135</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.022006716642</v>
+        <v>90.24257456340196</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.28629960494327</v>
+        <v>96.08543712051265</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>23.08196515182315</v>
+        <v>29.2456860681014</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.82098569052921</v>
+        <v>84.11540392422489</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>53.1480576563323</v>
+        <v>91.37964432313288</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-29.41645714526649</v>
+        <v>24.64562959595058</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-11.67945366745598</v>
+        <v>33.44436800783657</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-6.452794371935902</v>
+        <v>37.69399828354472</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-36.29391309628996</v>
+        <v>21.73503457495474</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-15.84249878842395</v>
+        <v>55.64031563955277</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-10.12892880601482</v>
+        <v>56.94243364378941</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-28.62878802892109</v>
+        <v>19.55560143209051</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-6.874896824279004</v>
+        <v>61.17616651951911</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-1.025414741517035</v>
+        <v>61.14788457497767</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-2.540146549511768</v>
+        <v>58.77259531846923</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>6.136390800181469</v>
+        <v>63.89111930031791</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>11.57746085423466</v>
+        <v>66.92592569388141</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-21.21003758443177</v>
+        <v>38.50769521148151</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>0.7827657420544112</v>
+        <v>56.78338507657666</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>9.784393418524175</v>
+        <v>66.14188674726549</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-25.14203346012442</v>
+        <v>22.61489758308427</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-7.063818240201737</v>
+        <v>40.55712733381199</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-1.894861038050825</v>
+        <v>44.55193021221415</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-32.69221150401636</v>
+        <v>25.57532832270274</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-12.21169711921356</v>
+        <v>53.74859815566264</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-6.419099374996793</v>
+        <v>59.07242825223548</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-24.91151666687737</v>
+        <v>14.24345293961333</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-2.872723253626892</v>
+        <v>57.67593139331603</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>2.950722415550318</v>
+        <v>66.8537597073211</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>0.8110589135196351</v>
+        <v>57.7339562653459</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>10.19059681582939</v>
+        <v>68.05564045658063</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>15.96209619705241</v>
+        <v>73.0313930241927</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-17.54427119029424</v>
+        <v>30.23310972846844</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>5.555617856727795</v>
+        <v>66.7923202226296</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>14.22508048207562</v>
+        <v>74.12069823609716</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-15.90077856431584</v>
+        <v>25.60750033421027</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>3.045165787196073</v>
+        <v>45.85957230075806</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>8.924753320552906</v>
+        <v>48.73587741056884</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-23.63375001697791</v>
+        <v>28.64169976705079</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-1.617653761711494</v>
+        <v>62.981578810083</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4.675501340177271</v>
+        <v>66.53994600666809</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-13.69523779546123</v>
+        <v>18.09995646842036</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>9.210848973677752</v>
+        <v>70.82084388139404</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>15.83733962929001</v>
+        <v>79.33381762752032</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>13.33341667145734</v>
+        <v>82.87183402444506</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>23.15423680997204</v>
+        <v>91.25117961536928</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.13703987069606</v>
+        <v>98.14832283191512</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-7.641241460171106</v>
+        <v>38.71116513923691</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.98848691362187</v>
+        <v>83.53490250608546</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.35963071079664</v>
+        <v>91.00005711118351</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.278732783439687</v>
+        <v>17.4170038094738</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.63939839630465</v>
+        <v>33.69310321689916</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.1891439452203</v>
+        <v>41.00256134576682</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>0.185692521603003</v>
+        <v>5.290194755746448</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>17.71809346502746</v>
+        <v>37.80777910558631</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.69530633532902</v>
+        <v>42.06005417927086</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.294530884543576</v>
+        <v>10.45627017646405</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.13370692579729</v>
+        <v>59.66421250814288</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.23879473874031</v>
+        <v>62.77319546547555</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.61461799635548</v>
+        <v>63.001694668619</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.95456942978272</v>
+        <v>68.31326440803636</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.55597088468061</v>
+        <v>69.87256719373732</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.01644820711414</v>
+        <v>19.80093803417456</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.23799831929569</v>
+        <v>56.95590386397496</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.11149670139574</v>
+        <v>64.8241092557796</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>7.719597406438148</v>
+        <v>12.25047769080513</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.32525956380048</v>
+        <v>35.40800122494664</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.82012544672817</v>
+        <v>39.53329306316826</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.059889192145132</v>
+        <v>2.022553131827067</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>19.56883533528105</v>
+        <v>32.77020211686821</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.60262767043092</v>
+        <v>37.98680039435112</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.1852017926799</v>
+        <v>3.228933633565351</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.21937613429956</v>
+        <v>51.30573536489943</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.29530309247816</v>
+        <v>59.38160287196936</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.298763321085</v>
+        <v>53.11345400885809</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.21347230416103</v>
+        <v>61.60510175906962</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.09600571259516</v>
+        <v>62.75619925829233</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.07393373312692</v>
+        <v>10.54968713332594</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.11537151106324</v>
+        <v>57.51282209899911</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.74244173667173</v>
+        <v>64.70895676038879</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>13.97969327038693</v>
+        <v>14.77055580331589</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.39492109824762</v>
+        <v>40.41228111475199</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.48045544838777</v>
+        <v>46.65054669833705</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>8.123141197586982</v>
+        <v>4.927880918150663</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.03078327500101</v>
+        <v>42.87421765825957</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.48375417005165</v>
+        <v>48.65793766554412</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>17.97727144799496</v>
+        <v>5.292588006583831</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>37.81847778572358</v>
+        <v>62.82097066861467</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>43.5663331967444</v>
+        <v>72.67066130926104</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.35955016425584</v>
+        <v>78.54299044799366</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>46.71786474531643</v>
+        <v>86.82049291018707</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>51.78011221324216</v>
+        <v>92.06474679459134</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.88026568137944</v>
+        <v>22.28174747139018</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.37791274505667</v>
+        <v>76.77022782690339</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.56359521961188</v>
+        <v>87.34884839657599</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>7.374392966084364</v>
+        <v>12.39402523464414</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.30836738916683</v>
+        <v>16.44909517800067</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.54062234444149</v>
+        <v>19.35701800124939</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2.201236745441861</v>
+        <v>-1.435582420500406</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.24042621178134</v>
+        <v>21.14850339490473</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.88668861745386</v>
+        <v>21.72663794150241</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>9.866003125385365</v>
+        <v>1.975294154760174</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.9833991424682</v>
+        <v>29.91606726340267</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.7385575201879</v>
+        <v>32.56392642608555</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.09892816582166</v>
+        <v>32.79239806666901</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.84814006393624</v>
+        <v>36.17170564120359</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.28972612185315</v>
+        <v>38.75157898892866</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>11.49985189724465</v>
+        <v>13.99825508568284</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.61963708287</v>
+        <v>29.58682571582698</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.92652384332559</v>
+        <v>31.62155889048478</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.33029711263659</v>
+        <v>12.46053503829738</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.56228973329947</v>
+        <v>30.22347693646937</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.76753827992755</v>
+        <v>36.76269190619389</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.650062497051398</v>
+        <v>5.124031706522448</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>20.73372645447494</v>
+        <v>30.54757342384252</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.4700747488052</v>
+        <v>38.69739316063302</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.3738431969178</v>
+        <v>6.788621919706362</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.75156871107721</v>
+        <v>43.59218364631681</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.5042851425675</v>
+        <v>57.56997976546596</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.41777797109804</v>
+        <v>47.08332892870611</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.73582111543477</v>
+        <v>54.23300349299421</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.45557211668918</v>
+        <v>61.47920593540551</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.02009823862592</v>
+        <v>13.54969682649014</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.05382244776462</v>
+        <v>51.78159414522909</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.14454903637198</v>
+        <v>60.04838093153133</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.36653238659796</v>
+        <v>20.91337412412451</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.27480437986833</v>
+        <v>39.07589547438782</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.05395823305155</v>
+        <v>45.73164849250439</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>10.48713084977726</v>
+        <v>9.649805166594561</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.78191357810456</v>
+        <v>42.04628503668852</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.92610140384328</v>
+        <v>48.97492251116026</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.85098100752186</v>
+        <v>13.81583032198402</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.90565752227271</v>
+        <v>56.83020947811672</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.30118197748631</v>
+        <v>70.47318349347569</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.03227127067839</v>
+        <v>70.82688737696145</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.71029129269188</v>
+        <v>74.53768765314888</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.59781563781726</v>
+        <v>84.30518429404324</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>20.61894520121097</v>
+        <v>26.50849051496592</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>39.853465193925</v>
+        <v>69.76431653393288</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>47.52436347257332</v>
+        <v>78.14595921882837</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-30.16912869695625</v>
+        <v>11.30228774607178</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-12.52564080712444</v>
+        <v>16.4703913607069</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-7.292045110876748</v>
+        <v>21.59894315128265</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-37.07453666279388</v>
+        <v>0.6933666841723642</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-16.73061915154089</v>
+        <v>26.85474877511043</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-11.01051447327758</v>
+        <v>30.94219745991808</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-29.49470124216327</v>
+        <v>3.193484263209719</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-7.847570136250934</v>
+        <v>36.99869691026629</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-1.990723886229372</v>
+        <v>39.31951597234001</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-3.382731941889422</v>
+        <v>40.19473929707517</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>5.257610113240006</v>
+        <v>45.39815731795479</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>10.69797454532634</v>
+        <v>49.85161360457009</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-21.96405002772203</v>
+        <v>19.33548705121883</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-0.06919078894760133</v>
+        <v>36.65152013248623</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>8.928598426472245</v>
+        <v>46.01517768452346</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-25.91040241777276</v>
+        <v>9.904464814501821</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-7.920950050058778</v>
+        <v>25.65134047440136</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-2.744173568261503</v>
+        <v>33.11325360537757</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-33.48225654633077</v>
+        <v>5.091825543184328</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-13.1047117554432</v>
+        <v>27.95227588579295</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-7.303983856564686</v>
+        <v>39.32409080355701</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-25.79116386138412</v>
+        <v>1.154733609360623</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.853723349693294</v>
+        <v>38.419772190107</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1.97788557901421</v>
+        <v>52.54357111175321</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-0.04561754461684053</v>
+        <v>42.61532490254285</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.301236216872638</v>
+        <v>53.39042281493872</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>15.07106949799322</v>
+        <v>61.19786296506793</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-18.3237578143681</v>
+        <v>13.34858866214176</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>4.683699980593528</v>
+        <v>49.18688487231594</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>13.34974528867612</v>
+        <v>59.52519634353042</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-16.60964118534729</v>
+        <v>13.62074086893387</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>2.247431449049918</v>
+        <v>30.86831747301805</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>8.134221242020161</v>
+        <v>37.264228611714</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-24.35638814874264</v>
+        <v>6.888741754942124</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-2.443566048083825</v>
+        <v>35.20858904655672</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>3.856795788080418</v>
+        <v>44.89128708117278</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-14.49976250609976</v>
+        <v>3.623319757734542</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>8.306008766102863</v>
+        <v>49.28377075051616</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>14.93908340389138</v>
+        <v>62.98274909514167</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>12.54809217558176</v>
+        <v>65.49907948995447</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.33203434535408</v>
+        <v>72.97666602370342</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.31554472525011</v>
+        <v>83.10195905762704</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-8.343827034987303</v>
+        <v>20.46030669051195</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.1907700971158</v>
+        <v>62.68822717760317</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.56100298446075</v>
+        <v>74.01914437686091</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.39650612603317</v>
+        <v>21.945026863856</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>32.6773265000627</v>
+        <v>33.88956773615098</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.85301902633457</v>
+        <v>39.90721979568362</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.54877113520896</v>
+        <v>7.710192257312201</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.15281576228817</v>
+        <v>48.73199784923682</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.65856864163537</v>
+        <v>50.44455944100877</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.4595944093275</v>
+        <v>15.51609864989178</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>39.97292203128001</v>
+        <v>65.62784673236138</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>44.64639282528599</v>
+        <v>65.87908836772789</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>38.88074284274361</v>
+        <v>58.93487368787707</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.73000025529223</v>
+        <v>65.96000089224584</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>49.96628637082063</v>
+        <v>67.84060205774654</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.93504986383667</v>
+        <v>40.77670836732937</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>40.33892960067694</v>
+        <v>58.40354223852285</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>47.73468906396685</v>
+        <v>72.09571288273041</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.28686240880212</v>
+        <v>22.4816669945799</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>34.80787526039718</v>
+        <v>41.69862728126954</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>38.92165636947298</v>
+        <v>44.38970244135733</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.83468802675656</v>
+        <v>6.810551044759443</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.40876091479995</v>
+        <v>39.73940761494388</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.96593169907491</v>
+        <v>43.05636508767965</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>23.74187097452163</v>
+        <v>8.943509095639726</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>41.45182276907897</v>
+        <v>59.33986029523807</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>46.08782349345629</v>
+        <v>65.40057382215593</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>40.02437530473357</v>
+        <v>57.50852107716217</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.42851072266563</v>
+        <v>63.53135150095387</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.91315348493976</v>
+        <v>66.80563542748411</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>24.40564298387162</v>
+        <v>29.55837573877228</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>42.65695812843418</v>
+        <v>65.46831879822498</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>49.73805301816765</v>
+        <v>70.00898339801354</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.85199526840166</v>
+        <v>23.60953727294842</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>41.0529432317811</v>
+        <v>44.35835525191951</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.71346682509093</v>
+        <v>47.79241394545933</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.23417381107138</v>
+        <v>7.908931994029878</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>38.01000541525391</v>
+        <v>47.18093137082246</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.9446781285944</v>
+        <v>50.92380917238744</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.70296479917046</v>
+        <v>10.83895320311411</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>49.0887694944777</v>
+        <v>69.46268664702365</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.34382718453723</v>
+        <v>76.91858678620409</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>48.1798727687484</v>
+        <v>79.81262445793782</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>55.94079342415518</v>
+        <v>86.35027648160955</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>60.59172959115732</v>
+        <v>89.44099420040445</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>30.48570462551303</v>
+        <v>36.68879599692117</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>49.97491687346257</v>
+        <v>79.82454257336559</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>57.59070064686491</v>
+        <v>86.02837260791986</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>9.447030912566088</v>
+        <v>16.83299585222899</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>24.67120476756536</v>
+        <v>33.39051703412434</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.13159546815533</v>
+        <v>38.55205735647471</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>4.50142017299676</v>
+        <v>6.140314315581989</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>21.89534213510849</v>
+        <v>40.09393834538257</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.77112047285257</v>
+        <v>42.33481825786937</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>12.7566067076727</v>
+        <v>9.526861209296378</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.4255565163479</v>
+        <v>58.35731925904143</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.43372404745961</v>
+        <v>59.93409412134755</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.45697565569631</v>
+        <v>61.11193341205798</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.70040329492905</v>
+        <v>68.37838823522566</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>43.26198454350038</v>
+        <v>67.99171244635747</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.94424769145176</v>
+        <v>18.59591781788347</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.94354352188202</v>
+        <v>54.8957306392797</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>40.70271249904712</v>
+        <v>61.12886878941941</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>11.86967926565277</v>
+        <v>12.69813499442432</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>27.33810968587625</v>
+        <v>36.08231642759576</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.74802256697321</v>
+        <v>40.01243072642578</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>6.364218704540552</v>
+        <v>4.081891255766575</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>23.73814706113923</v>
+        <v>35.01434943336916</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.66935310403862</v>
+        <v>39.84240358842199</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>14.6378984757063</v>
+        <v>5.256837981423455</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>33.50238109309105</v>
+        <v>53.24419037381909</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.48624608754799</v>
+        <v>62.26589668756329</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.14312835890982</v>
+        <v>55.5793693218617</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>40.95348342940562</v>
+        <v>63.84272453215513</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>45.80058837301309</v>
+        <v>64.54019553045964</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.99715635784062</v>
+        <v>12.11447174417333</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>35.82442585771473</v>
+        <v>60.98346206171412</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>43.33791939170376</v>
+        <v>67.19284829802348</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.64780737443819</v>
+        <v>14.50565031005523</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.89122960377588</v>
+        <v>40.01177646868104</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.88556483340013</v>
+        <v>45.74574090844356</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>11.91942098395505</v>
+        <v>5.292822675579963</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.65021955262234</v>
+        <v>42.33552207854812</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.99876405004371</v>
+        <v>47.64065881423396</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.87846657323625</v>
+        <v>5.11319342288505</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>41.51183629820366</v>
+        <v>61.68274641896214</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.15845153223812</v>
+        <v>71.35129099935521</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>41.6427367509148</v>
+        <v>76.27177401433934</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>49.8838291915488</v>
+        <v>82.93557797586584</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.90862789283514</v>
+        <v>89.36000356086819</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>22.30733599625528</v>
+        <v>19.94872116608167</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>43.52834644623027</v>
+        <v>73.42578663323432</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>51.60417228652599</v>
+        <v>83.23646978395628</v>
       </c>
     </row>
   </sheetData>
